--- a/random/server_data.xlsx
+++ b/random/server_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janpe\Desktop\Faks\Magisterska\raziskava\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBEF41C-4B14-415F-944F-F050DC604C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A776245-4E8C-485E-BB63-90CD15D3A2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="3780" windowWidth="28800" windowHeight="15435" xr2:uid="{C2D072CB-4753-4BFB-9689-8C4292F420BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C2D072CB-4753-4BFB-9689-8C4292F420BA}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,74 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Tag11,,Tag12,,Tag13,</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
   <si>
     <t>Tag Name,Data Type,AccessRights,Simulated</t>
   </si>
   <si>
-    <t>11,good,56,good,47,good</t>
-  </si>
-  <si>
-    <t>Tag1,IO_Int16,RW,FALSE</t>
-  </si>
-  <si>
-    <t>11,good,32,good,14,good</t>
-  </si>
-  <si>
-    <t>Tag2,IO_Int32,RW,FALSE</t>
-  </si>
-  <si>
-    <t>13,good,28,good,85,good</t>
-  </si>
-  <si>
-    <t>Tag3,IO_Int64,RW,FALSE</t>
-  </si>
-  <si>
-    <t>11,good,14,good,125,good</t>
-  </si>
-  <si>
-    <t>Tag4,IO_UInt16,RW,FALSE</t>
-  </si>
-  <si>
-    <t>11,good,15,good,24,good</t>
-  </si>
-  <si>
-    <t>Tag5,IO_UInt32,RW,FALSE</t>
-  </si>
-  <si>
-    <t>11,good,57,good,69,good</t>
-  </si>
-  <si>
-    <t>Tag6,IO_UInt64,RW,FALSE</t>
-  </si>
-  <si>
-    <t>11,good,65,good,36,good</t>
-  </si>
-  <si>
-    <t>Tag7,IO_Double,RW,FALSE</t>
-  </si>
-  <si>
-    <t>11,good,18,good,18,good</t>
-  </si>
-  <si>
-    <t>Tag8,IO_String,RW,FALSE</t>
-  </si>
-  <si>
-    <t>11,good,48,good,84,good</t>
-  </si>
-  <si>
-    <t>Tag9,IO_Byte,RW,FALSE</t>
-  </si>
-  <si>
-    <t>11,good,36,good,64,good</t>
-  </si>
-  <si>
-    <t>Tag10,IO_Boolean,RW,FALSE</t>
-  </si>
-  <si>
     <t>Tag11,IO_Int16,R,TRUE</t>
   </si>
   <si>
@@ -132,6 +69,384 @@
   </si>
   <si>
     <t>Tag20,IO_Boolean,R,TRUE</t>
+  </si>
+  <si>
+    <t>robot_running,IO_Boolean,RW,FALSE</t>
+  </si>
+  <si>
+    <t>current_logged_user_level,IO_String,RW,FALSE</t>
+  </si>
+  <si>
+    <t>robot_playback,IO_Boolean,R,TRUE</t>
+  </si>
+  <si>
+    <t>robot_running,IO_Boolean,R,TRUE</t>
+  </si>
+  <si>
+    <t>current_logged_user_level,IO_String,R,TRUE</t>
+  </si>
+  <si>
+    <t>current_logged_user_level,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>robot_running,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>robot_playback,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>robot_energy_saving,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>product_code,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>serial_number,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>alarm,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>alarm_axes,IO_Int16,R,1</t>
+  </si>
+  <si>
+    <t>alarm_code,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>alarm_date,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>alarm_job,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>alarm_mode,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>alarm_active,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>error_active,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>reset_alarm,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>reset_error,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>axis_name_1,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>axis_name_2,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>axis_name_3,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>axis_name_4,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>axis_name_5,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>axis_name_6,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>axis_position_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_position_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_position_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_position_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_position_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_position_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_degree_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_degree_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_degree_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_degree_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_degree_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_degree_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_speed_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_speed_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_speed_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_speed_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_speed_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>axis_speed_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_design_lifetime_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_design_lifetime_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_design_lifetime_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_design_lifetime_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_design_lifetime_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_design_lifetime_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_remaining_lifetime_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_remaining_lifetime_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_remaining_lifetime_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_remaining_lifetime_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_remaining_lifetime_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>speed_reducer_remaining_lifetime_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_designed_lifetime_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_designed_lifetime_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_designed_lifetime_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_designed_lifetime_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_designed_lifetime_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_designed_lifetime_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_remaining_lifetime_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_remaining_lifetime_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_remaining_lifetime_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_remaining_lifetime_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_remaining_lifetime_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>amplifiers_remaining_lifetime_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_design_lifetime_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_design_lifetime_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_design_lifetime_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_design_lifetime_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_design_lifetime_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_design_lifetime_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_remaining_lifetime_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_remaining_lifetime_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_remaining_lifetime_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_remaining_lifetime_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_remaining_lifetime_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>capacitors_remaining_lifetime_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_design_lifetime_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_design_lifetime_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_design_lifetime_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_design_lifetime_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_design_lifetime_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_design_lifetime_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_remaining_lifetime_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_remaining_lifetime_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_remaining_lifetime_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_remaining_lifetime_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_remaining_lifetime_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>contactors_remaining_lifetime_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>cps_fan_designed_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>cps_fan_remaining_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>controller_box_fan_designed_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>controller_box_fan_remaining_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>regenerative_fan_designed_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>regenerative_box_fan_remaining_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>manipulator_fan_designed_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>manipulator_box_fan_remaining_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>set_job,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>flange_load,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>device_manufacturer,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>device_model ,IO_String,R,True</t>
+  </si>
+  <si>
+    <t>device_moving,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>total_moving_time,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>total_playback_time,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>total_servo_on_time,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>encoder_temperature_1,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>encoder_temperature_2,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>encoder_temperature_3,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>encoder_temperature_4,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>encoder_temperature_5,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>encoder_temperature_6,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>device_serial_number,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>grease_supply_design_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>grease_supply_remaining_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>wire_harness_design_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>wire_harness_remaining_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>battery_exchange_design_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>battery_exchange_remaining_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>overhaul_design_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>overhaul_remaining_lifetime,IO_Int16,R,True</t>
+  </si>
+  <si>
+    <t>emergency_stop,IO_Boolean,R,True</t>
+  </si>
+  <si>
+    <t>protective_stop,IO_Boolean,R,True</t>
   </si>
 </sst>
 </file>
@@ -484,150 +799,702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EA23E5-8A9A-4118-B5AB-66C9B3E4118F}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
